--- a/Dosage.xlsx
+++ b/Dosage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\pharmacy apps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\GitHub\Pharmacy-Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9601AD-45C7-4146-8242-EF7758457E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D276EE-3A13-4D12-8AA8-AEBC70071E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,15 +577,6 @@
     </r>
   </si>
   <si>
-    <t>Ibuprofen 600 mg/tab</t>
-  </si>
-  <si>
-    <t>Ibuprofen 400mg/tab</t>
-  </si>
-  <si>
-    <t>Amorolfine 1% w/v laque (Locerul)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ΤΟΠΙΚΑ ΜΙΑ με ΔΥΟ ΦΟΡΕΣ ΤΗ ΒΔΟΜΑΔΑ ΓΙΑ 6 ΜΗΝΕΣ ΣΤΑ ΝΥΧΙΑ ΤΩΝ ΧΕΡΙΩΝ ΚΑΙ ΓΙΑ 9-12 ΜΗΝΕΣ ΣΤΑ ΝΥΧΙΑ ΤΩΝ ΠΟΔΙΩΝ, ΑΦΗΣΕ ΝΑ ΣΤΕΓΝΩΣΕΙ ΓΙΑ 3 ΛΕΠΤΑ </t>
   </si>
   <si>
@@ -616,9 +607,6 @@
     <t>Depon Maximum (Paracetamol 1gr)</t>
   </si>
   <si>
-    <t>Otrivin (Xylometazoline)</t>
-  </si>
-  <si>
     <t>1-2 ψεκασμούς σε κάθε ρουθούνι πρωι και βραδυ, ΠΡΟΕΙΔΟΠΟΙΗΣΗ: ΝΑ ΜΗΝ ΓΙΝΕΤΑΙ ΧΡΗΣΗ ΓΙΑ ΠΑΡΑΠΑΝΩ ΑΠΌ 7-10 ΗΜΕΡΕΣ ΣΥΝΕΧΟΜΕΝΑ</t>
   </si>
   <si>
@@ -634,12 +622,6 @@
     <t>Παρε ΕΝΑ χαπι ΤΡΕΙΣ φορες τη μερα  ΜΕΤΑ ΤΟ ΦΑΓΗΤΟ, ΠΡΟΕΙΔΟΠΟΙΗΣΗ: ΟΧΙ  ΠΑΝΩ ΑΠΟ ΤΡΙΑ ΧΑΠΙΑ ΤΗ ΜΕΡΑ</t>
   </si>
   <si>
-    <t>Depon (Paracetamol)</t>
-  </si>
-  <si>
-    <t>Aciclovir 5% w/w cream (Zovirax)</t>
-  </si>
-  <si>
     <t>Beclometasone/ formoterol</t>
   </si>
   <si>
@@ -655,9 +637,6 @@
     <t>Κάνε 1 με 2 ΕΙΣΠΝΟΕΣ ΠΡΩΙ ΚΑΙ ΒΡΑΔΥ ΠΡΟΕΙΔΟΠΟΙΗΣΗ: ΜΕΧΡΙ 4 ΕΙΣΠΝΟΕΣ ΠΡΩΙ ΚΑΙ ΒΡΑΔΥ</t>
   </si>
   <si>
-    <t>Montelukast 10mg</t>
-  </si>
-  <si>
     <t>Montelukast 5mg</t>
   </si>
   <si>
@@ -685,15 +664,9 @@
     <t>Κάνε 1-2 ΕΙΣΠΝΟΕΣ ΤΡΕΙΣ ΜΕ ΤΕΣΣΕΡΙΣ ΦΟΡΕΣ την ημέρα</t>
   </si>
   <si>
-    <t>Tiotropium (Spiriva)</t>
-  </si>
-  <si>
     <t>Κάνε 1 ΕΙΣΠΝΟΗ ΜΙΑ ΦΟΡΑ ΤΗΝ ΗΜΕΡΑ</t>
   </si>
   <si>
-    <t>Indacaterol (Ultibro breezehaler)</t>
-  </si>
-  <si>
     <t>Κάνε 1 ΕΙΣΠΝΟΗ ΜΙΑ ΦΟΡΑ  ΤΗΝ ΗΜΕΡΑ (ΧΑΠ)</t>
   </si>
   <si>
@@ -703,15 +676,9 @@
     <t>Κάνε ΜΙΑ ΕΙΣΠΝΟΗ ΜΙΑ ΦΟΡΑ ΤΗΝ ΗΜΕΡΑ (ΧΑΠ)</t>
   </si>
   <si>
-    <t>Vilanterol with fluticasone furoate (Relvar) 92/22</t>
-  </si>
-  <si>
     <t>Κάνε ΜΙΑ ΕΙΣΠΝΟΗ ΜΙΑ ΦΟΡΑ ΤΗΝ ΗΜΕΡΑ (ΑΣΘΜΑ &amp; ΧΑΠ)</t>
   </si>
   <si>
-    <t>Olodaterol (Spiriva Respimat)</t>
-  </si>
-  <si>
     <t>Κάνε 2 ΕΙΣΠΝΟΕΣ ΜΙΑ ΦΟΡΑ ΤΗΝ ΗΜΕΡΑ (ΧΑΠ)</t>
   </si>
   <si>
@@ -772,14 +739,46 @@
     <t>Πάρε 2 ΚΟΥΤΑΛΙΑ ΤΗΣ ΣΟΥΠΑΣ (15ml) το βραδυ, ΜΕΤΑ 1 ΚΟΥΤΑΛΙ ΤΗΣ ΣΟΥΠΑΣ ΤΟ ΒΡΑΔΥ</t>
   </si>
   <si>
-    <t>Hexacough (guaifenesin)</t>
-  </si>
-  <si>
     <t>ΔΥΟ ΚΟΥΤΑΛΙΕΣ ΤΟΥ ΓΛΥΚΟΥ ΤΕΣΣΕΡΙΣ ΦΟΡΕΣ ΤΗΝ ΗΜΕΡΑ</t>
   </si>
   <si>
-    <t>Δερματική Επάλειψη
-ΤΟΠΙΚΑ ΚΑΘΕ 4 ΩΡΕΣ για 5-7 ΗΜΕΡΕΣ</t>
+    <t>Δερματική Επάλειψη ΤΟΠΙΚΑ ΚΑΘΕ 4 ΩΡΕΣ για 5-7 ΗΜΕΡΕΣ</t>
+  </si>
+  <si>
+    <t>Zovirax cream (Aciclovir 5% w/w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loceryl (Amorolfine 1% w/v laque) </t>
+  </si>
+  <si>
+    <t>Depon Tab (Paracetamol 500mg)</t>
+  </si>
+  <si>
+    <t>Hexacough syrup (guaifenesin)</t>
+  </si>
+  <si>
+    <t>Algofrnen 600mg (Ibuprofen)</t>
+  </si>
+  <si>
+    <t>Modulair 10mg (Montelukast)</t>
+  </si>
+  <si>
+    <t>Algofren 400mg (Ibuprofen)</t>
+  </si>
+  <si>
+    <t>Spiriva Respimat (Olodaterol)</t>
+  </si>
+  <si>
+    <t>Spiriva (Tiotropium)</t>
+  </si>
+  <si>
+    <t>Relvar 92/22 (Vilanterol with fluticasone furoate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultibro breezehaler (Indacaterol) </t>
+  </si>
+  <si>
+    <t>Otrivin spray Adult (Xylometazoline)</t>
   </si>
 </sst>
 </file>
@@ -1426,68 +1425,68 @@
     </row>
     <row r="22" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1505,7 +1504,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,223 +1526,223 @@
     <col min="26" max="26" width="51.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
